--- a/coco_objects.xlsx
+++ b/coco_objects.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://postechackr-my.sharepoint.com/personal/jhshin95_postech_ac_kr/Documents/10.프로젝트/YOGO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quddl\OneDrive\바탕 화면\YOGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{073666D4-07D7-4111-8E7F-FD7439650B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2475" windowWidth="38700" windowHeight="15435" xr2:uid="{3FAB22B4-67AE-4E87-B71B-A84A3C3F4134}"/>
+    <workbookView xWindow="1440" yWindow="2475" windowWidth="38700" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,9 +40,6 @@
     <t>person</t>
   </si>
   <si>
-    <t>bicycle</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
@@ -284,13 +283,17 @@
   </si>
   <si>
     <t>Grippable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -680,11 +683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5935A45-D555-467B-BC03-453434157DAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -697,277 +700,307 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -975,80 +1008,80 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1056,54 +1089,45 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="4">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1111,84 +1135,69 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1196,128 +1205,131 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>69</v>
@@ -1325,103 +1337,99 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="4">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="1">
+        <v>74</v>
+      </c>
+      <c r="C79" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C81">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1613,18 +1621,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1646,18 +1654,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{897021D1-E074-4F70-9F21-7D08283FC952}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ff84cf55-56ec-42dc-a1ec-091ab85895ec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9680F93-B54F-4463-B8BC-1B38AF522BED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{897021D1-E074-4F70-9F21-7D08283FC952}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>